--- a/files/FacturaSirius.xlsx
+++ b/files/FacturaSirius.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Ref.</t>
   </si>
@@ -95,19 +95,13 @@
     <t>IVA</t>
   </si>
   <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>xx</t>
+    <t>Impuesto 1</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>Norwin</t>
   </si>
 </sst>
 </file>
@@ -131,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,15 +148,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,67 +527,247 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0.15</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/FacturaSirius.xlsx
+++ b/files/FacturaSirius.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Ref.</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Norwin</t>
+  </si>
+  <si>
+    <t>Flete</t>
+  </si>
+  <si>
+    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -449,13 +455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -546,230 +555,39 @@
       <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="1">
+        <v>700</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/FacturaSirius.xlsx
+++ b/files/FacturaSirius.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Ref.</t>
   </si>
@@ -71,24 +71,6 @@
     <t>Forma de Pago 1</t>
   </si>
   <si>
-    <t>Pago 2</t>
-  </si>
-  <si>
-    <t>Forma de Pago 2</t>
-  </si>
-  <si>
-    <t>Pago 3</t>
-  </si>
-  <si>
-    <t>Forma de Pago 3</t>
-  </si>
-  <si>
-    <t>Pago 4</t>
-  </si>
-  <si>
-    <t>Forma de Pago 4</t>
-  </si>
-  <si>
     <t>Enviado a (3)</t>
   </si>
   <si>
@@ -98,22 +80,58 @@
     <t>Impuesto 1</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>Norwin</t>
-  </si>
-  <si>
-    <t>Flete</t>
-  </si>
-  <si>
-    <t>Cheque</t>
+    <t>IGLESIA DE JESUCRISTO DE LOS S.U.D.</t>
+  </si>
+  <si>
+    <t>INSTITUTO LOYOLA</t>
+  </si>
+  <si>
+    <t>GIOVANI MORA GARCIA</t>
+  </si>
+  <si>
+    <t>PROJECT MANAGEMENT SERVICES</t>
+  </si>
+  <si>
+    <t>ARQUIDIOCESIS DE MATAGALPA</t>
+  </si>
+  <si>
+    <t>ALBERT REYNALDO MARTINEZ PEREZ</t>
+  </si>
+  <si>
+    <t>DONALD ROSALES CALDERON &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>DIMELCO, S.A</t>
+  </si>
+  <si>
+    <t>ORLANDO BENITO CONSTRUCTORA S.A</t>
+  </si>
+  <si>
+    <t>CUBAS ELECTRICA</t>
+  </si>
+  <si>
+    <t>DANELIA RAQUEL HERNANDEZ MOLINA</t>
+  </si>
+  <si>
+    <t>NACEL DE NICARAGUA</t>
+  </si>
+  <si>
+    <t>TARJETA DE CREDITO</t>
+  </si>
+  <si>
+    <t>EFECTIVO</t>
+  </si>
+  <si>
+    <t>CHEQUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;C$&quot;\ #,##0.00_);[Red]\(&quot;C$&quot;\ #,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,9 +190,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,18 +473,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,73 +551,887 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>94250</v>
+      </c>
+      <c r="D2" s="4">
+        <v>42725</v>
+      </c>
+      <c r="E2">
+        <v>268</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="H2" s="3">
+        <v>19310.919999999998</v>
+      </c>
+      <c r="K2" s="3">
+        <v>19310.919999999998</v>
+      </c>
+      <c r="M2" s="3">
+        <v>22207.56</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2896.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>94251</v>
+      </c>
+      <c r="D3" s="4">
+        <v>42725</v>
+      </c>
+      <c r="E3">
+        <v>268</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3">
+        <v>19363.54</v>
+      </c>
+      <c r="K3" s="3">
+        <v>19363.54</v>
+      </c>
+      <c r="M3" s="3">
+        <v>22268.07</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2904.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>94252</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42725</v>
+      </c>
+      <c r="E4">
+        <v>268</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3">
+        <v>33666.1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>33666.1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>38716.019999999997</v>
+      </c>
+      <c r="R4" s="3">
+        <v>5049.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>94253</v>
+      </c>
+      <c r="D5" s="4">
+        <v>42725</v>
+      </c>
+      <c r="E5">
+        <v>268</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3">
+        <v>33666.1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>33666.1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>38716.019999999997</v>
+      </c>
+      <c r="R5" s="3">
+        <v>5049.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>57383</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E6">
+        <v>3746</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="G6" s="3">
+        <v>380.03</v>
+      </c>
+      <c r="K6" s="3">
+        <v>380.03</v>
+      </c>
+      <c r="N6" s="3">
+        <v>437.03</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>57386</v>
+      </c>
+      <c r="D7" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E7">
+        <v>3340</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="G7" s="3">
+        <v>557.37</v>
+      </c>
+      <c r="K7" s="3">
+        <v>557.37</v>
+      </c>
+      <c r="N7" s="3">
+        <v>640.98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="3">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>57388</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E8">
+        <v>1587</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="G8" s="3">
+        <v>379.21</v>
+      </c>
+      <c r="K8" s="3">
+        <v>379.21</v>
+      </c>
+      <c r="N8" s="3">
+        <v>436.09</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="3">
+        <v>56.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>57389</v>
+      </c>
+      <c r="D9" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E9">
+        <v>1587</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4048.75</v>
+      </c>
+      <c r="H9" s="3">
+        <v>129</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4177.75</v>
+      </c>
+      <c r="N9" s="3">
+        <v>4785.0600000000004</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="3">
+        <v>607.30999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>57390</v>
+      </c>
+      <c r="D10" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E10">
+        <v>1587</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3">
+        <v>556.70000000000005</v>
+      </c>
+      <c r="K10" s="3">
+        <v>556.70000000000005</v>
+      </c>
+      <c r="N10" s="3">
+        <v>640.21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="3">
+        <v>83.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>57391</v>
+      </c>
+      <c r="D11" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E11">
+        <v>3405</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="H11" s="3">
+        <v>6820</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6820</v>
+      </c>
+      <c r="N11" s="3">
+        <v>7706.6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>57392</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E12">
+        <v>1587</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1644.8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1644.8</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1858.62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="3">
+        <v>246.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>57393</v>
+      </c>
+      <c r="D13" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E13">
+        <v>1587</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3">
+        <v>822.4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>822.4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>945.76</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="3">
+        <v>123.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>57394</v>
+      </c>
+      <c r="D14" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E14">
+        <v>3405</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9974.14</v>
+      </c>
+      <c r="K14" s="3">
+        <v>9974.14</v>
+      </c>
+      <c r="N14" s="3">
+        <v>11270.78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1496.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>57395</v>
+      </c>
+      <c r="D15" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E15">
+        <v>3405</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2170</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2170</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2452.1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="3">
+        <v>325.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>57396</v>
+      </c>
+      <c r="D16" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E16">
+        <v>1471</v>
+      </c>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="G16" s="3">
+        <v>215.18</v>
+      </c>
+      <c r="K16" s="3">
+        <v>215.18</v>
+      </c>
+      <c r="N16" s="3">
+        <v>247.46</v>
+      </c>
+      <c r="O16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="3">
+        <v>32.28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>57397</v>
+      </c>
+      <c r="D17" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E17">
+        <v>1885</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G17" s="3">
+        <v>15456</v>
+      </c>
+      <c r="K17" s="3">
+        <v>15456</v>
+      </c>
+      <c r="N17" s="3">
+        <v>17465.28</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2318.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>57398</v>
+      </c>
+      <c r="D18" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E18">
+        <v>1471</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3012.46</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3012.46</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3464.33</v>
+      </c>
+      <c r="O18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="3">
+        <v>451.87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>57399</v>
+      </c>
+      <c r="D19" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E19">
+        <v>511</v>
+      </c>
+      <c r="F19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1">
-        <v>700</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="1">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1">
-        <v>100</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="G19" s="3">
+        <v>413.05</v>
+      </c>
+      <c r="K19" s="3">
+        <v>413.05</v>
+      </c>
+      <c r="N19" s="3">
+        <v>475.01</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="3">
+        <v>61.96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>57400</v>
+      </c>
+      <c r="D20" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E20">
+        <v>1471</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3012.46</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3012.46</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3464.33</v>
+      </c>
+      <c r="O20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="3">
+        <v>451.87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>57401</v>
+      </c>
+      <c r="D21" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E21">
+        <v>1936</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="3">
+        <v>912.07</v>
+      </c>
+      <c r="K21" s="3">
+        <v>912.07</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1048.8800000000001</v>
+      </c>
+      <c r="O21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="3">
+        <v>136.81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>57402</v>
+      </c>
+      <c r="D22" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E22">
+        <v>1471</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3012.46</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3012.46</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3464.33</v>
+      </c>
+      <c r="O22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="3">
+        <v>451.87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>57403</v>
+      </c>
+      <c r="D23" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E23">
+        <v>511</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3">
+        <v>196.6</v>
+      </c>
+      <c r="K23" s="3">
+        <v>196.6</v>
+      </c>
+      <c r="N23" s="3">
+        <v>226.09</v>
+      </c>
+      <c r="O23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="3">
+        <v>29.49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>57404</v>
+      </c>
+      <c r="D24" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E24">
+        <v>1471</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1013.41</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1013.41</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1165.42</v>
+      </c>
+      <c r="O24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="3">
+        <v>152.01</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>57405</v>
+      </c>
+      <c r="D25" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E25">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="G25" s="3">
+        <v>21484.25</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K25" s="3">
+        <v>28784.25</v>
+      </c>
+      <c r="M25" s="3">
+        <v>32576.89</v>
+      </c>
+      <c r="R25" s="3">
+        <v>3792.64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>57406</v>
+      </c>
+      <c r="D26" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E26">
+        <v>2174</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1992.03</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1992.03</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2290.83</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" s="3">
+        <v>298.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>57407</v>
+      </c>
+      <c r="D27" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E27">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="3">
+        <v>15606.48</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>17106.48</v>
+      </c>
+      <c r="M27" s="3">
+        <v>19672.45</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2565.9699999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>57409</v>
+      </c>
+      <c r="D28" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E28">
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1672.12</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1672.12</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1922.94</v>
+      </c>
+      <c r="R28" s="3">
+        <v>250.82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>57410</v>
+      </c>
+      <c r="D29" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E29">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="3">
+        <v>30782.27</v>
+      </c>
+      <c r="H29" s="3">
+        <v>350</v>
+      </c>
+      <c r="K29" s="3">
+        <v>31132.27</v>
+      </c>
+      <c r="M29" s="3">
+        <v>35802.11</v>
+      </c>
+      <c r="R29" s="3">
+        <v>4669.84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>57411</v>
+      </c>
+      <c r="D30" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E30">
+        <v>251</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="3">
+        <v>12517.6</v>
+      </c>
+      <c r="K30" s="3">
+        <v>12517.6</v>
+      </c>
+      <c r="M30" s="3">
+        <v>14395.24</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1877.64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>57412</v>
+      </c>
+      <c r="D31" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E31">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="3">
+        <v>15391.14</v>
+      </c>
+      <c r="K31" s="3">
+        <v>15391.14</v>
+      </c>
+      <c r="M31" s="3">
+        <v>17699.810000000001</v>
+      </c>
+      <c r="R31" s="3">
+        <v>2308.67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>57413</v>
+      </c>
+      <c r="D32" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E32">
+        <v>251</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="3">
+        <v>12566.26</v>
+      </c>
+      <c r="K32" s="3">
+        <v>12566.26</v>
+      </c>
+      <c r="M32" s="3">
+        <v>14451.2</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1884.94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/FacturaSirius.xlsx
+++ b/files/FacturaSirius.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>Ref.</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>CHEQUE</t>
+  </si>
+  <si>
+    <t>fasdfsadf</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -577,6 +580,9 @@
       <c r="M2" s="3">
         <v>22207.56</v>
       </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
       <c r="R2" s="3">
         <v>2896.64</v>
       </c>

--- a/files/FacturaSirius.xlsx
+++ b/files/FacturaSirius.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Ref.</t>
   </si>
@@ -125,7 +125,13 @@
     <t>CHEQUE</t>
   </si>
   <si>
-    <t>fasdfsadf</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>EU</t>
   </si>
 </sst>
 </file>
@@ -478,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -609,6 +615,9 @@
       <c r="M3" s="3">
         <v>22268.07</v>
       </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
       <c r="R3" s="3">
         <v>2904.53</v>
       </c>
@@ -634,6 +643,9 @@
       </c>
       <c r="M4" s="3">
         <v>38716.019999999997</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
       </c>
       <c r="R4" s="3">
         <v>5049.92</v>

--- a/files/FacturaSirius.xlsx
+++ b/files/FacturaSirius.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>Ref.</t>
   </si>
@@ -150,12 +150,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -196,12 +202,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1289,32 +1298,35 @@
         <v>298.8</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27">
+    <row r="27" spans="2:18" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
         <v>57407</v>
       </c>
-      <c r="D27" s="4">
-        <v>41641</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="6">
+        <v>41641</v>
+      </c>
+      <c r="E27" s="5">
         <v>97</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="7">
         <v>15606.48</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="7">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="7">
         <v>17106.48</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="7">
         <v>19672.45</v>
       </c>
-      <c r="R27" s="3">
+      <c r="P27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="7">
         <v>2565.9699999999998</v>
       </c>
     </row>
